--- a/Excel/test.xlsx
+++ b/Excel/test.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Python\NanTong_YNKS\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C0CEEB-2744-4295-B196-5F500B6104F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="5610" yWindow="1830" windowWidth="21600" windowHeight="12645" tabRatio="924"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Example_1" sheetId="38" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="downtime">Example_1!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Example_1!$B$2:$H$33</definedName>
+  </definedNames>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -76,7 +94,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -94,7 +112,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -118,7 +136,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -145,7 +163,7 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color rgb="FF000000"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
@@ -391,7 +409,6 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>≤</t>
     </r>
@@ -445,31 +462,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="181" formatCode="[$€-2]\ #,##0.00;[$€-2]\ \-#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="[$$-409]#,##0.00"/>
-    <numFmt numFmtId="183" formatCode="[$$-409]#,##0.00_ ;\-[$$-409]#,##0.00\ "/>
+    <numFmt numFmtId="222" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="223" formatCode="0.00_ "/>
+    <numFmt numFmtId="224" formatCode="0.0%"/>
+    <numFmt numFmtId="225" formatCode="[$€-2]\ #,##0.00;[$€-2]\ \-#,##0.00"/>
+    <numFmt numFmtId="226" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="227" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="228" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="229" formatCode="[$$-409]#,##0.00_ ;\-[$$-409]#,##0.00\ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -498,9 +529,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -513,8 +547,14 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -523,8 +563,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -532,6 +576,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
     </font>
     <font>
       <b/>
@@ -558,60 +607,16 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -620,12 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -645,6 +644,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -655,102 +660,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -759,19 +794,30 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,7 +826,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,7 +846,22 @@
       <right/>
       <top/>
       <bottom style="dotted">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,6 +885,21 @@
         <color theme="4"/>
       </left>
       <right style="hair">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
         <color theme="4"/>
       </right>
       <top style="thin">
@@ -867,6 +954,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="4"/>
+      </top>
+      <bottom style="hair">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -894,30 +994,6 @@
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -940,21 +1016,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4"/>
       </left>
       <right/>
@@ -965,99 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="hair">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="hair">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1066,369 +1034,474 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="hair">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="222" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="9" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="223" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="224" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="225" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="226" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="227" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="228" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="226" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="222" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="226" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="222" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="222" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="229" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="222" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="222" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="222" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="15" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="223" fontId="22" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="180" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="4" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="4" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="3" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="gcd" xfId="2"/>
-    <cellStyle name="Normal_Holland prices" xfId="3"/>
+  <cellStyles count="3">
+    <cellStyle name="gcd" xfId="1"/>
+    <cellStyle name="Normal_Holland prices" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22570" name="그림 3" descr="New logo.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206E944C-0524-4487-BFA2-6AA30FCD0961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9391650" y="104775"/>
+          <a:ext cx="3438525" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1470,7 +1543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1502,9 +1575,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1536,6 +1627,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1711,295 +1820,319 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:U37"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="99" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="100" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:21" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="55" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="56">
+      <c r="O1" s="9">
         <v>6.83</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="103">
+      <c r="Q1" s="11">
         <v>44628</v>
       </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-    </row>
-    <row r="2" spans="1:21" ht="23.25">
-      <c r="A2" s="3" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="58" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="59">
+      <c r="O2" s="14">
         <v>0.2</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-    </row>
-    <row r="3" spans="1:21" ht="23.25">
-      <c r="A3" s="3" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:21" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="58" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="61">
+      <c r="O3" s="17">
         <v>0</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-    </row>
-    <row r="4" spans="1:21" ht="23.25">
-      <c r="A4" s="8" t="s">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+    </row>
+    <row r="4" spans="1:21" ht="30" customHeight="1">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="58" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="17">
         <v>0</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-    </row>
-    <row r="5" spans="1:21" ht="20.25">
-      <c r="A5" s="3" t="s">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:21" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="63" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="114" t="s">
+      <c r="P5" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-    </row>
-    <row r="6" spans="1:21" ht="20.25">
-      <c r="A6" s="8" t="s">
+      <c r="Q5" s="102"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" customHeight="1">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-    </row>
-    <row r="7" spans="1:21" ht="20.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:21" ht="30" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="117" t="s">
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="118"/>
-      <c r="P7" s="67" t="s">
+      <c r="O7" s="105"/>
+      <c r="P7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Q7" s="67" t="s">
+      <c r="Q7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="67" t="s">
+      <c r="S7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="67" t="s">
+      <c r="T7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="67" t="s">
+      <c r="U7" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="21" thickBot="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:21" ht="30" customHeight="1" thickBot="1">
+      <c r="A8" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="69" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="70" t="s">
+      <c r="O8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="P8" s="71">
+      <c r="P8" s="33">
         <v>0.26</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="33">
+        <f>O2</f>
         <v>0.2</v>
       </c>
-      <c r="R8" s="71">
+      <c r="R8" s="33">
+        <f>O3</f>
         <v>0</v>
       </c>
-      <c r="S8" s="71">
+      <c r="S8" s="33">
+        <f>O4</f>
         <v>0</v>
       </c>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-    </row>
-    <row r="9" spans="1:21" ht="20.25">
-      <c r="A9" s="119" t="s">
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+    </row>
+    <row r="9" spans="1:21" ht="30" customHeight="1">
+      <c r="A9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="110" t="s">
@@ -2008,547 +2141,574 @@
       <c r="I9" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="73" t="s">
+      <c r="K9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M9" s="52"/>
-      <c r="N9" s="75" t="s">
+      <c r="M9" s="5"/>
+      <c r="N9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="75" t="s">
+      <c r="O9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="P9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="75" t="s">
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="U9" s="75" t="s">
+      <c r="U9" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="31.5">
-      <c r="A10" s="120"/>
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="1:21" ht="30" customHeight="1">
+      <c r="A10" s="109"/>
+      <c r="B10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="41" t="s">
         <v>42</v>
       </c>
       <c r="H10" s="111"/>
       <c r="I10" s="113"/>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="52"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="104"/>
-    </row>
-    <row r="11" spans="1:21" ht="75">
-      <c r="A11" s="18" t="s">
+      <c r="M10" s="5"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1">
+      <c r="A11" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="52">
         <v>287.5</v>
       </c>
-      <c r="J11" s="82" t="s">
+      <c r="J11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="55">
+        <f t="shared" ref="K11:K16" si="0">U11</f>
         <v>35.862957540263544</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="56">
+        <f t="shared" ref="L11:L16" si="1">K11*I11</f>
         <v>10310.600292825769</v>
       </c>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86">
+      <c r="M11" s="57"/>
+      <c r="N11" s="58">
+        <f>121+15</f>
         <v>136</v>
       </c>
-      <c r="O11" s="80">
+      <c r="O11" s="47">
+        <f>21+5</f>
         <v>26</v>
       </c>
-      <c r="P11" s="81">
+      <c r="P11" s="48">
+        <f t="shared" ref="P11:P16" si="2">$P$8</f>
         <v>0.26</v>
       </c>
-      <c r="Q11" s="81">
+      <c r="Q11" s="48">
+        <f t="shared" ref="Q11:Q16" si="3">$Q$8</f>
         <v>0.2</v>
       </c>
-      <c r="R11" s="81">
+      <c r="R11" s="48">
+        <f t="shared" ref="R11:R16" si="4">$R$8</f>
         <v>0</v>
       </c>
-      <c r="S11" s="81">
+      <c r="S11" s="48">
+        <f t="shared" ref="S11:S16" si="5">$S$8</f>
         <v>0</v>
       </c>
-      <c r="T11" s="86">
+      <c r="T11" s="58">
+        <f t="shared" ref="T11:T16" si="6">(1+S11)*(1+R11)*(1+Q11)*(1+P11)*(O11+N11)</f>
         <v>244.94399999999999</v>
       </c>
-      <c r="U11" s="79">
+      <c r="U11" s="46">
+        <f t="shared" ref="U11:U16" si="7">T11/$O$1</f>
         <v>35.862957540263544</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="60">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:21" ht="30" customHeight="1">
+      <c r="A12" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="52">
         <v>188</v>
       </c>
-      <c r="J12" s="82" t="s">
+      <c r="J12" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="83">
+      <c r="K12" s="55">
+        <f t="shared" si="0"/>
         <v>33.649194729136163</v>
       </c>
-      <c r="L12" s="84">
+      <c r="L12" s="56">
+        <f t="shared" si="1"/>
         <v>6326.0486090775985</v>
       </c>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86">
+      <c r="M12" s="57"/>
+      <c r="N12" s="58">
         <v>121</v>
       </c>
-      <c r="O12" s="80">
+      <c r="O12" s="47">
         <v>31</v>
       </c>
-      <c r="P12" s="81">
+      <c r="P12" s="48">
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="Q12" s="81">
+      <c r="Q12" s="48">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="R12" s="81">
+      <c r="R12" s="48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S12" s="81">
+      <c r="S12" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="86">
+      <c r="T12" s="58">
+        <f t="shared" si="6"/>
         <v>229.82400000000001</v>
       </c>
-      <c r="U12" s="79">
+      <c r="U12" s="46">
+        <f t="shared" si="7"/>
         <v>33.649194729136163</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="45">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:21" ht="30" customHeight="1">
+      <c r="A13" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="52">
         <v>49.4</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="55">
+        <f t="shared" si="0"/>
         <v>33.649194729136163</v>
       </c>
-      <c r="L13" s="84">
+      <c r="L13" s="56">
+        <f t="shared" si="1"/>
         <v>1662.2702196193263</v>
       </c>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86">
+      <c r="M13" s="57"/>
+      <c r="N13" s="58">
         <v>121</v>
       </c>
-      <c r="O13" s="80">
+      <c r="O13" s="47">
         <v>31</v>
       </c>
-      <c r="P13" s="81">
+      <c r="P13" s="48">
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="Q13" s="81">
+      <c r="Q13" s="48">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="R13" s="81">
+      <c r="R13" s="48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="81">
+      <c r="S13" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="86">
+      <c r="T13" s="58">
+        <f t="shared" si="6"/>
         <v>229.82400000000001</v>
       </c>
-      <c r="U13" s="79">
+      <c r="U13" s="46">
+        <f t="shared" si="7"/>
         <v>33.649194729136163</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:21" ht="30" customHeight="1">
+      <c r="A14" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="52">
         <v>29</v>
       </c>
-      <c r="J14" s="82" t="s">
+      <c r="J14" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="55">
+        <f t="shared" si="0"/>
         <v>75.267935578330892</v>
       </c>
-      <c r="L14" s="84">
+      <c r="L14" s="56">
+        <f t="shared" si="1"/>
         <v>2182.770131771596</v>
       </c>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86">
+      <c r="M14" s="57"/>
+      <c r="N14" s="58">
         <v>310</v>
       </c>
-      <c r="O14" s="80">
+      <c r="O14" s="47">
         <v>30</v>
       </c>
-      <c r="P14" s="81">
+      <c r="P14" s="48">
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="Q14" s="81">
+      <c r="Q14" s="48">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="R14" s="81">
+      <c r="R14" s="48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S14" s="81">
+      <c r="S14" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="86">
+      <c r="T14" s="58">
+        <f t="shared" si="6"/>
         <v>514.08000000000004</v>
       </c>
-      <c r="U14" s="79">
+      <c r="U14" s="46">
+        <f t="shared" si="7"/>
         <v>75.267935578330892</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="75">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:21" ht="30" customHeight="1">
+      <c r="A15" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="52">
         <v>164</v>
       </c>
-      <c r="J15" s="82" t="s">
+      <c r="J15" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="55">
+        <f t="shared" si="0"/>
         <v>35.862957540263544</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="56">
+        <f t="shared" si="1"/>
         <v>5881.5250366032215</v>
       </c>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86">
+      <c r="M15" s="57"/>
+      <c r="N15" s="58">
         <v>136</v>
       </c>
-      <c r="O15" s="80">
+      <c r="O15" s="47">
         <v>26</v>
       </c>
-      <c r="P15" s="81">
+      <c r="P15" s="48">
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="Q15" s="81">
+      <c r="Q15" s="48">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="R15" s="81">
+      <c r="R15" s="48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S15" s="81">
+      <c r="S15" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T15" s="86">
+      <c r="T15" s="58">
+        <f t="shared" si="6"/>
         <v>244.94399999999999</v>
       </c>
-      <c r="U15" s="79">
+      <c r="U15" s="46">
+        <f t="shared" si="7"/>
         <v>35.862957540263544</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="45.75" thickBot="1">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:21" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="61">
         <v>49.4</v>
       </c>
-      <c r="J16" s="87" t="s">
+      <c r="J16" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="64">
+        <f t="shared" si="0"/>
         <v>33.649194729136163</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="65">
+        <f t="shared" si="1"/>
         <v>1662.2702196193263</v>
       </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86">
+      <c r="M16" s="57"/>
+      <c r="N16" s="58">
         <v>121</v>
       </c>
-      <c r="O16" s="80">
+      <c r="O16" s="47">
         <v>31</v>
       </c>
-      <c r="P16" s="81">
+      <c r="P16" s="48">
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
-      <c r="Q16" s="81">
+      <c r="Q16" s="48">
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="R16" s="81">
+      <c r="R16" s="48">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S16" s="81">
+      <c r="S16" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T16" s="86">
+      <c r="T16" s="58">
+        <f t="shared" si="6"/>
         <v>229.82400000000001</v>
       </c>
-      <c r="U16" s="79">
+      <c r="U16" s="46">
+        <f t="shared" si="7"/>
         <v>33.649194729136163</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91">
+    <row r="17" spans="1:21" ht="30" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71">
+        <f>SUM(L11:L16)</f>
         <v>28025.484509516842</v>
       </c>
-      <c r="M17" s="85"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" ht="15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" ht="16.5" thickBot="1">
-      <c r="A19" s="10" t="s">
+      <c r="M17" s="57"/>
+    </row>
+    <row r="18" spans="1:21" ht="30" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="57"/>
+    </row>
+    <row r="19" spans="1:21" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75">
-      <c r="A20" s="119" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="57"/>
+    </row>
+    <row r="20" spans="1:21" ht="30" customHeight="1">
+      <c r="A20" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="34" t="s">
         <v>70</v>
       </c>
       <c r="H20" s="110" t="s">
@@ -2557,507 +2717,378 @@
       <c r="I20" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="73" t="s">
+      <c r="K20" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="M20" s="85"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" ht="31.5">
-      <c r="A21" s="120"/>
-      <c r="B21" s="16" t="s">
+      <c r="M20" s="57"/>
+    </row>
+    <row r="21" spans="1:21" ht="30" customHeight="1">
+      <c r="A21" s="109"/>
+      <c r="B21" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="41" t="s">
         <v>42</v>
       </c>
       <c r="H21" s="111"/>
       <c r="I21" s="113"/>
-      <c r="J21" s="76" t="s">
+      <c r="J21" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="78" t="s">
+      <c r="L21" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="85"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" ht="45.75" thickBot="1">
-      <c r="A22" s="23" t="s">
+      <c r="M21" s="57"/>
+    </row>
+    <row r="22" spans="1:21" ht="30" customHeight="1" thickBot="1">
+      <c r="A22" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="74">
         <v>6</v>
       </c>
-      <c r="J22" s="87" t="s">
+      <c r="J22" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="88">
+      <c r="K22" s="64">
+        <f>U22</f>
         <v>95.191800878477295</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L22" s="65">
+        <f>K22*I22</f>
         <v>571.15080527086377</v>
       </c>
-      <c r="M22" s="85"/>
-      <c r="N22" s="86">
+      <c r="M22" s="57"/>
+      <c r="N22" s="58">
         <v>390</v>
       </c>
-      <c r="O22" s="80">
+      <c r="O22" s="47">
         <v>40</v>
       </c>
-      <c r="P22" s="81">
+      <c r="P22" s="48">
+        <f>$P$8</f>
         <v>0.26</v>
       </c>
-      <c r="Q22" s="81">
+      <c r="Q22" s="48">
+        <f>$Q$8</f>
         <v>0.2</v>
       </c>
-      <c r="R22" s="81">
+      <c r="R22" s="48">
+        <f>$R$8</f>
         <v>0</v>
       </c>
-      <c r="S22" s="81">
+      <c r="S22" s="48">
+        <f>$S$8</f>
         <v>0</v>
       </c>
-      <c r="T22" s="86">
+      <c r="T22" s="58">
+        <f>(1+S22)*(1+R22)*(1+Q22)*(1+P22)*(O22+N22)</f>
         <v>650.16</v>
       </c>
-      <c r="U22" s="79">
+      <c r="U22" s="46">
+        <f>T22/$O$1</f>
         <v>95.191800878477295</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91">
+    <row r="23" spans="1:21" ht="30" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="71">
+        <f>SUM(L22:L22)</f>
         <v>571.15080527086377</v>
       </c>
-      <c r="M23" s="85"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" ht="15.75">
-      <c r="A24" s="37"/>
-      <c r="B24" s="108" t="s">
+      <c r="M23" s="57"/>
+    </row>
+    <row r="24" spans="1:21" ht="30" customHeight="1">
+      <c r="A24" s="78"/>
+      <c r="B24" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="108" t="s">
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="93"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75">
-      <c r="A25" s="40"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75">
-      <c r="A26" s="43" t="s">
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:21" ht="30" customHeight="1">
+      <c r="A25" s="83"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:21" ht="30" customHeight="1">
+      <c r="A26" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="44" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98">
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91">
+        <f>L17</f>
         <v>28025.484509516842</v>
       </c>
-      <c r="M26" s="52"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-    </row>
-    <row r="27" spans="1:21" ht="17.25">
-      <c r="A27" s="43" t="s">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:21" ht="30" customHeight="1">
+      <c r="A27" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="44" t="s">
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98">
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91">
+        <f>L23</f>
         <v>571.15080527086377</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-    </row>
-    <row r="28" spans="1:21" ht="17.25">
-      <c r="A28" s="43" t="s">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:21" ht="30" customHeight="1">
+      <c r="A28" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="44" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="98">
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="91">
+        <f>SUM(L26:L27)</f>
         <v>28596.635314787705</v>
       </c>
-      <c r="M28" s="99"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" ht="17.25">
-      <c r="A29" s="43" t="s">
+      <c r="M28" s="95"/>
+    </row>
+    <row r="29" spans="1:21" ht="30" customHeight="1">
+      <c r="A29" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="99"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" ht="17.25">
-      <c r="A30" s="43" t="s">
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="30"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29" s="95"/>
+    </row>
+    <row r="30" spans="1:21" ht="30" customHeight="1">
+      <c r="A30" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="99"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" ht="17.25">
-      <c r="A31" s="43" t="s">
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30" s="95"/>
+    </row>
+    <row r="31" spans="1:21" ht="30" customHeight="1">
+      <c r="A31" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="51"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" ht="17.25">
-      <c r="A32" s="43" t="s">
+      <c r="B31" s="93"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:21" ht="30" customHeight="1">
+      <c r="A32" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" ht="15.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="15.75">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" ht="15.75">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1">
+      <c r="B33" s="28"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1">
+      <c r="B34" s="96"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" customHeight="1">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" customHeight="1">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" customHeight="1">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="N7:O7"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="I24:I25"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="H9:H10"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I24:I25"/>
   </mergeCells>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="25" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:P5">
+      <formula1>"Domestic,Export"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>